--- a/companies_interviews.xlsx
+++ b/companies_interviews.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Google Drive\Master\Thesis\thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Interviews\pushed\industry_percpectives_interviews_and_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2364" windowHeight="1104" tabRatio="761" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2364" windowHeight="1104" tabRatio="761" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ASAL Technologies AT1" sheetId="1" r:id="rId1"/>
@@ -460,9 +460,6 @@
     <t>The development approach decision depends on the project nature (requirements)</t>
   </si>
   <si>
-    <t>If the app requires high access on device resources (ex: GPS) then we go cross-platform since it will be complicated in native</t>
-  </si>
-  <si>
     <t>We choose the cross-platform technology depends on our experience</t>
   </si>
   <si>
@@ -542,6 +539,9 @@
   </si>
   <si>
     <t>Ionic has a service facilitates the maintenance process (Ionic Pro) which makes the developers able to push the change without re-publishing the app again</t>
+  </si>
+  <si>
+    <t>If the app requires high access on device resources (ex: GPS) then we go native since it will be complicated in cross-platform</t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -739,7 +739,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1613,7 +1613,7 @@
   <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2570,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="3" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
@@ -2613,134 +2613,134 @@
     </row>
     <row r="4" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="8">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="8">
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="8">
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="8">
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="8">
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="8">
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="8">
         <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="8">
         <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="8">
         <v>10</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="8">
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="8">
         <v>12</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" s="8">
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2752,8 +2752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2784,117 +2784,117 @@
     </row>
     <row r="3" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="8">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="8">
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" s="8">
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="8">
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="8">
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="8">
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="8">
         <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="8">
         <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" s="8">
         <v>10</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="8">
         <v>11</v>
@@ -2905,46 +2905,46 @@
     </row>
     <row r="14" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="8">
         <v>12</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" s="8">
         <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="8">
         <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" s="8">
         <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
